--- a/Treexelator BoM.xlsx
+++ b/Treexelator BoM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/77dac08e149951cc/Masaüstü/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="201" documentId="11_F25DC773A252ABDACC104854F1186E825BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31E54508-8DF3-43DD-BBBE-AACF7514F8F9}"/>
+  <xr:revisionPtr revIDLastSave="222" documentId="11_F25DC773A252ABDACC104854F1186E825BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54CA2717-725C-4C69-BD23-790E4B02953A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
   <si>
     <t>Product Model</t>
   </si>
@@ -102,9 +102,6 @@
     <t xml:space="preserve">Adafruit </t>
   </si>
   <si>
-    <t>Slipring</t>
-  </si>
-  <si>
     <t>12 wire, 2amp/wire, 28awg slip ring</t>
   </si>
   <si>
@@ -181,6 +178,30 @@
   </si>
   <si>
     <t>Estimated  ~£1800-2000</t>
+  </si>
+  <si>
+    <t>Device Name</t>
+  </si>
+  <si>
+    <t>CubeMars GL100 KV10</t>
+  </si>
+  <si>
+    <t>CubeMars GL60 KV25</t>
+  </si>
+  <si>
+    <t>CubeMarsGL80 KV30</t>
+  </si>
+  <si>
+    <t>ODrive Pro VESC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Slip Ring</t>
+  </si>
+  <si>
+    <t>Senring 6</t>
+  </si>
+  <si>
+    <t>STM32H7 Development Board</t>
   </si>
 </sst>
 </file>
@@ -291,10 +312,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -346,9 +366,6 @@
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -367,9 +384,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -377,6 +391,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -664,337 +684,366 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" customWidth="1"/>
-    <col min="6" max="6" width="24.44140625" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" customWidth="1"/>
-    <col min="8" max="8" width="58.77734375" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
+    <col min="9" max="9" width="58.77734375" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7">
+        <v>273</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
+        <v>273</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="4" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="12">
+        <v>182</v>
+      </c>
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11">
+        <v>182</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7">
+        <v>109</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>109</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="15">
+        <v>230</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="11">
+        <v>220</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="18">
+        <v>18.8</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="12">
+        <v>816</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="20">
+        <v>28.79</v>
+      </c>
+      <c r="E8" s="6">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>6</v>
+      <c r="F8" s="6">
+        <v>115.26</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="8">
-        <v>273</v>
-      </c>
-      <c r="D2" s="7">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="24">
+        <v>22.6</v>
+      </c>
+      <c r="E9" s="23">
         <v>1</v>
       </c>
-      <c r="E2" s="7">
-        <v>273</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="30" t="s">
+      <c r="F9" s="23">
+        <v>22.6</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="13">
-        <v>182</v>
-      </c>
-      <c r="D3" s="12">
-        <v>1</v>
-      </c>
-      <c r="E3" s="12">
-        <v>182</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="8">
-        <v>109</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7">
-        <v>109</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="16">
-        <v>230</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="12">
-        <v>220</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="19">
-        <v>18.8</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="18">
-        <v>0</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="13">
-        <v>816</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="12">
-        <v>0</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="22">
-        <v>28.79</v>
-      </c>
-      <c r="D8" s="7">
-        <v>4</v>
-      </c>
-      <c r="E8" s="7">
-        <v>115.26</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="26">
-        <v>22.6</v>
-      </c>
-      <c r="D9" s="25">
-        <v>1</v>
-      </c>
-      <c r="E9" s="27">
-        <v>22.6</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G5" r:id="rId1" xr:uid="{194D76C6-5096-44F3-9E88-107E51C4751C}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{E5931B64-ECD1-4486-BE3D-7438E740376E}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{C630779E-B070-4FC6-BF3C-285C9E8FA932}"/>
-    <hyperlink ref="G4" r:id="rId4" xr:uid="{8DBB00D7-CD2C-42B0-9F7D-5941C7341826}"/>
-    <hyperlink ref="I2" r:id="rId5" xr:uid="{D0CA2FA2-7FB6-43CF-B8DC-EE5F68A05E30}"/>
-    <hyperlink ref="I3" r:id="rId6" xr:uid="{D0F2EF9A-6A7F-48CE-B62F-36CE9FAEC415}"/>
-    <hyperlink ref="I4" r:id="rId7" xr:uid="{6AEEAB53-72AA-40BB-BB2F-89143E16370E}"/>
-    <hyperlink ref="I5" r:id="rId8" xr:uid="{775B4B0E-4F53-436D-806F-50630F19F6C9}"/>
-    <hyperlink ref="G7" r:id="rId9" xr:uid="{17D353B5-1E76-4105-99D8-36E5B71136DA}"/>
-    <hyperlink ref="G8" r:id="rId10" xr:uid="{B29F4E00-F9CB-404A-B2BB-B9F0C8F27C2E}"/>
-    <hyperlink ref="I9" r:id="rId11" display="https://www.digikey.co.uk/en/products/detail/stmicroelectronics/NUCLEO-H723ZG/13171214?gad_source=1&amp;gad_campaignid=20265362335&amp;gbraid=0AAAAADrbLlgfQLb3QIZTmxX0YtuM7qDt7&amp;gclid=Cj0KCQjw35bIBhDqARIsAGjd-cbKv-wPJDxe9Qw4-gC5m5719deJl2gPWSlKei4jxD-g72eYJMFRfboaArANEALw_wcB&amp;gclsrc=aw.ds" xr:uid="{6B0E165F-CFD1-45DF-A4C9-F3397B4F181D}"/>
-    <hyperlink ref="G9" r:id="rId12" xr:uid="{107642C9-4C70-4166-AEB4-116051E1DEFD}"/>
+    <hyperlink ref="H5" r:id="rId1" xr:uid="{194D76C6-5096-44F3-9E88-107E51C4751C}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{E5931B64-ECD1-4486-BE3D-7438E740376E}"/>
+    <hyperlink ref="H3" r:id="rId3" xr:uid="{C630779E-B070-4FC6-BF3C-285C9E8FA932}"/>
+    <hyperlink ref="H4" r:id="rId4" xr:uid="{8DBB00D7-CD2C-42B0-9F7D-5941C7341826}"/>
+    <hyperlink ref="J2" r:id="rId5" xr:uid="{D0CA2FA2-7FB6-43CF-B8DC-EE5F68A05E30}"/>
+    <hyperlink ref="J3" r:id="rId6" xr:uid="{D0F2EF9A-6A7F-48CE-B62F-36CE9FAEC415}"/>
+    <hyperlink ref="J4" r:id="rId7" xr:uid="{6AEEAB53-72AA-40BB-BB2F-89143E16370E}"/>
+    <hyperlink ref="J5" r:id="rId8" xr:uid="{775B4B0E-4F53-436D-806F-50630F19F6C9}"/>
+    <hyperlink ref="H7" r:id="rId9" xr:uid="{17D353B5-1E76-4105-99D8-36E5B71136DA}"/>
+    <hyperlink ref="H8" r:id="rId10" xr:uid="{B29F4E00-F9CB-404A-B2BB-B9F0C8F27C2E}"/>
+    <hyperlink ref="J9" r:id="rId11" display="https://www.digikey.co.uk/en/products/detail/stmicroelectronics/NUCLEO-H723ZG/13171214?gad_source=1&amp;gad_campaignid=20265362335&amp;gbraid=0AAAAADrbLlgfQLb3QIZTmxX0YtuM7qDt7&amp;gclid=Cj0KCQjw35bIBhDqARIsAGjd-cbKv-wPJDxe9Qw4-gC5m5719deJl2gPWSlKei4jxD-g72eYJMFRfboaArANEALw_wcB&amp;gclsrc=aw.ds" xr:uid="{6B0E165F-CFD1-45DF-A4C9-F3397B4F181D}"/>
+    <hyperlink ref="H9" r:id="rId12" xr:uid="{107642C9-4C70-4166-AEB4-116051E1DEFD}"/>
+    <hyperlink ref="J6" r:id="rId13" display="https://www.digikey.co.uk/en/products/detail/adafruit-industries-llc/1195/5353635?_gl=1*17547nr*_up*MQ..*_gs*NA..&amp;gclid=Cj0KCQjw35bIBhDqARIsAGjd-cb4wDj67KgshPd8U8WqXyom1d_QIdsFfsT2mLz6VfNrmRmbZz5XULkaAgr0EALw_wcB&amp;gclsrc=aw.ds&amp;gbraid=0AAAAADrbLliajRulg83CzspJX4kIiRFq7" xr:uid="{873EDBCF-7278-47A6-AF80-3D581F85280D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/Treexelator BoM.xlsx
+++ b/Treexelator BoM.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/77dac08e149951cc/Masaüstü/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/77dac08e149951cc/Belgeler/Masaüstü/Hippos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="222" documentId="11_F25DC773A252ABDACC104854F1186E825BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54CA2717-725C-4C69-BD23-790E4B02953A}"/>
+  <xr:revisionPtr revIDLastSave="330" documentId="11_F25DC773A252ABDACC104854F1186E825BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57DD5913-DF29-41FB-838B-F82D161D045C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
   <si>
     <t>Product Model</t>
   </si>
@@ -162,24 +173,15 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>£1,376.17</t>
-  </si>
-  <si>
     <t>exe cost</t>
   </si>
   <si>
-    <t>NK</t>
-  </si>
-  <si>
     <t>Tax + Shipping</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>Estimated  ~£1800-2000</t>
-  </si>
-  <si>
     <t>Device Name</t>
   </si>
   <si>
@@ -198,10 +200,34 @@
     <t xml:space="preserve"> Slip Ring</t>
   </si>
   <si>
-    <t>Senring 6</t>
-  </si>
-  <si>
     <t>STM32H7 Development Board</t>
+  </si>
+  <si>
+    <t>https://www.rls.si/eng/aksim-2-off-axis-rotary-absolute-encoder</t>
+  </si>
+  <si>
+    <t>https://www.rls.si/eng/fileuploader/download/download/?d=1&amp;id=267&amp;title=Data+sheet%3A+AksIM-2%E2%84%A2+off-axis+rotary+absolute+magnetic+encoder+%28MBD01%29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non-contact 20bit high performance off-axis absolute rotary encoder </t>
+  </si>
+  <si>
+    <t>RLS</t>
+  </si>
+  <si>
+    <t>Aksim 2</t>
+  </si>
+  <si>
+    <t>Absolute Magnetic Encoder</t>
+  </si>
+  <si>
+    <t>Senring 10A</t>
+  </si>
+  <si>
+    <t>Senring 2A</t>
+  </si>
+  <si>
+    <t>NET TOTAL</t>
   </si>
 </sst>
 </file>
@@ -213,7 +239,7 @@
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="166" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,8 +255,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,6 +279,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,7 +357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -375,28 +420,38 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -415,10 +470,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -684,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -699,17 +750,17 @@
     <col min="5" max="5" width="8.44140625" customWidth="1"/>
     <col min="6" max="6" width="10.21875" customWidth="1"/>
     <col min="7" max="7" width="24.44140625" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" customWidth="1"/>
+    <col min="8" max="8" width="35.77734375" customWidth="1"/>
     <col min="9" max="9" width="58.77734375" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" customWidth="1"/>
+    <col min="10" max="10" width="42.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -721,10 +772,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>4</v>
@@ -736,27 +787,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7">
-        <v>273</v>
+      <c r="D2" s="20">
+        <v>227.49</v>
       </c>
       <c r="E2" s="6">
         <v>1</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="20">
         <v>273</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>47</v>
+      <c r="G2" s="20">
+        <f>D2*0.2</f>
+        <v>45.498000000000005</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>13</v>
@@ -768,7 +820,7 @@
         <v>13</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -776,22 +828,23 @@
         <v>9</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="12">
-        <v>182</v>
+      <c r="D3" s="32">
+        <v>151.66</v>
       </c>
       <c r="E3" s="11">
         <v>1</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="32">
         <v>182</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>47</v>
+      <c r="G3" s="32">
+        <f>D3*0.2</f>
+        <v>30.332000000000001</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>14</v>
@@ -802,31 +855,32 @@
       <c r="J3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K3" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="7">
-        <v>109</v>
+      <c r="D4" s="20">
+        <v>90.83</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="20">
         <v>109</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>47</v>
+      <c r="G4" s="20">
+        <f>D4*0.2</f>
+        <v>18.166</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>15</v>
@@ -838,7 +892,7 @@
         <v>15</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -846,7 +900,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>11</v>
@@ -857,11 +911,12 @@
       <c r="E5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="11">
-        <v>220</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>47</v>
+      <c r="F5" s="12">
+        <v>229</v>
+      </c>
+      <c r="G5" s="32">
+        <f>153.39+49.21</f>
+        <v>202.6</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>12</v>
@@ -872,16 +927,16 @@
       <c r="J5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K5" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>56</v>
+      <c r="B6" s="17" t="s">
+        <v>53</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>24</v>
@@ -895,8 +950,8 @@
       <c r="F6" s="17">
         <v>0</v>
       </c>
-      <c r="G6" s="17" t="s">
-        <v>47</v>
+      <c r="G6" s="17">
+        <v>0</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>23</v>
@@ -904,11 +959,11 @@
       <c r="I6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="29" t="s">
+      <c r="J6" s="23" t="s">
         <v>22</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -916,7 +971,7 @@
         <v>31</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>30</v>
@@ -930,8 +985,8 @@
       <c r="F7" s="11">
         <v>0</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>47</v>
+      <c r="G7" s="11">
+        <v>0</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>28</v>
@@ -942,31 +997,31 @@
       <c r="J7" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K7" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="20">
-        <v>28.79</v>
+      <c r="D8" s="7">
+        <v>35</v>
       </c>
       <c r="E8" s="6">
+        <v>2</v>
+      </c>
+      <c r="F8" s="7">
+        <v>70</v>
+      </c>
+      <c r="G8" s="7">
         <v>4</v>
-      </c>
-      <c r="F8" s="6">
-        <v>115.26</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>36</v>
@@ -978,56 +1033,140 @@
         <v>35</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="7">
+        <v>18</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
+        <v>18</v>
+      </c>
+      <c r="G9" s="7">
+        <v>4</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="31">
+        <v>382</v>
+      </c>
+      <c r="E10" s="26">
+        <v>3</v>
+      </c>
+      <c r="F10" s="31">
+        <v>1148</v>
+      </c>
+      <c r="G10" s="31">
+        <v>30</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="23" t="s">
+      <c r="B11" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D11" s="18">
         <v>22.6</v>
       </c>
-      <c r="E9" s="23">
-        <v>1</v>
-      </c>
-      <c r="F9" s="23">
-        <v>22.6</v>
-      </c>
-      <c r="G9" s="23" t="s">
+      <c r="E11" s="17">
+        <v>2</v>
+      </c>
+      <c r="F11" s="18">
+        <f>D11*2</f>
+        <v>45.2</v>
+      </c>
+      <c r="G11" s="17">
+        <v>0</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" s="23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E10" s="1" t="s">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E12" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>50</v>
+      <c r="F12" s="33">
+        <v>1710.2</v>
+      </c>
+      <c r="G12" s="34">
+        <v>325.18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D14" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="33">
+        <f>SUM(F12:G12)</f>
+        <v>2035.38</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D14:E14"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="H5" r:id="rId1" xr:uid="{194D76C6-5096-44F3-9E88-107E51C4751C}"/>
     <hyperlink ref="H2" r:id="rId2" xr:uid="{E5931B64-ECD1-4486-BE3D-7438E740376E}"/>
@@ -1038,12 +1177,15 @@
     <hyperlink ref="J4" r:id="rId7" xr:uid="{6AEEAB53-72AA-40BB-BB2F-89143E16370E}"/>
     <hyperlink ref="J5" r:id="rId8" xr:uid="{775B4B0E-4F53-436D-806F-50630F19F6C9}"/>
     <hyperlink ref="H7" r:id="rId9" xr:uid="{17D353B5-1E76-4105-99D8-36E5B71136DA}"/>
-    <hyperlink ref="H8" r:id="rId10" xr:uid="{B29F4E00-F9CB-404A-B2BB-B9F0C8F27C2E}"/>
-    <hyperlink ref="J9" r:id="rId11" display="https://www.digikey.co.uk/en/products/detail/stmicroelectronics/NUCLEO-H723ZG/13171214?gad_source=1&amp;gad_campaignid=20265362335&amp;gbraid=0AAAAADrbLlgfQLb3QIZTmxX0YtuM7qDt7&amp;gclid=Cj0KCQjw35bIBhDqARIsAGjd-cbKv-wPJDxe9Qw4-gC5m5719deJl2gPWSlKei4jxD-g72eYJMFRfboaArANEALw_wcB&amp;gclsrc=aw.ds" xr:uid="{6B0E165F-CFD1-45DF-A4C9-F3397B4F181D}"/>
-    <hyperlink ref="H9" r:id="rId12" xr:uid="{107642C9-4C70-4166-AEB4-116051E1DEFD}"/>
+    <hyperlink ref="H9" r:id="rId10" xr:uid="{B29F4E00-F9CB-404A-B2BB-B9F0C8F27C2E}"/>
+    <hyperlink ref="J11" r:id="rId11" display="https://www.digikey.co.uk/en/products/detail/stmicroelectronics/NUCLEO-H723ZG/13171214?gad_source=1&amp;gad_campaignid=20265362335&amp;gbraid=0AAAAADrbLlgfQLb3QIZTmxX0YtuM7qDt7&amp;gclid=Cj0KCQjw35bIBhDqARIsAGjd-cbKv-wPJDxe9Qw4-gC5m5719deJl2gPWSlKei4jxD-g72eYJMFRfboaArANEALw_wcB&amp;gclsrc=aw.ds" xr:uid="{6B0E165F-CFD1-45DF-A4C9-F3397B4F181D}"/>
+    <hyperlink ref="H11" r:id="rId12" xr:uid="{107642C9-4C70-4166-AEB4-116051E1DEFD}"/>
     <hyperlink ref="J6" r:id="rId13" display="https://www.digikey.co.uk/en/products/detail/adafruit-industries-llc/1195/5353635?_gl=1*17547nr*_up*MQ..*_gs*NA..&amp;gclid=Cj0KCQjw35bIBhDqARIsAGjd-cb4wDj67KgshPd8U8WqXyom1d_QIdsFfsT2mLz6VfNrmRmbZz5XULkaAgr0EALw_wcB&amp;gclsrc=aw.ds&amp;gbraid=0AAAAADrbLliajRulg83CzspJX4kIiRFq7" xr:uid="{873EDBCF-7278-47A6-AF80-3D581F85280D}"/>
+    <hyperlink ref="J10" r:id="rId14" xr:uid="{7C51F1DA-2A6C-4A1D-9096-175A916F04B9}"/>
+    <hyperlink ref="H10" r:id="rId15" xr:uid="{2DFCC130-31CE-4300-BC4A-CBE6302D2EFA}"/>
+    <hyperlink ref="H8" r:id="rId16" xr:uid="{A41F4814-8D6D-41F5-ADD4-34F17A5D3EE2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>